--- a/biology/Médecine/Purpura/Purpura.xlsx
+++ b/biology/Médecine/Purpura/Purpura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le purpura[1] est une lésion hémorragique de la peau ou des muqueuses, de couleur rouge à pourpre, ne s'effaçant pas à la vitropression, due à une extravasation de sang dans le derme. La répartition des taches purpuriques peut être pétéchiale, ecchymotique, ou en traînées linéaires (appelées vibices).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le purpura est une lésion hémorragique de la peau ou des muqueuses, de couleur rouge à pourpre, ne s'effaçant pas à la vitropression, due à une extravasation de sang dans le derme. La répartition des taches purpuriques peut être pétéchiale, ecchymotique, ou en traînées linéaires (appelées vibices).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Mécanisme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le purpura a deux mécanismes d'apparition. Le premier est d'ordre hématologique, c'est-à-dire qu'un problème de coagulation (en lien avec les plaquettes) permet la sortie de sang des capillaires sanguins, comme dans la thrombopénie et les autres thrombopathies. Le second mécanisme est d'ordre vasculaire, c'est-à-dire que l'intégrité de la paroi des vaisseaux ou des capillaires sanguins est altérée, ce qui permet une sortie de sang dans le derme, tel que dans la vascularite où l'inflammation de la paroi vasculaire la rend perméable.
 </t>
@@ -544,14 +558,88 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Thrombopénique
-On parle de thrombopénie lorsque le taux de plaquettes dans le sang est inférieur à 150 000 /mm3 = 150 000 /µL = 150 Giga plaquettes /L[2] :
+          <t>Thrombopénique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>On parle de thrombopénie lorsque le taux de plaquettes dans le sang est inférieur à 150 000 /mm3 = 150 000 /µL = 150 Giga plaquettes /L :
 lié à une thrombopénie périphérique ;
-lié à une thrombopénie centrale.
-Thrombopathie
-Le taux de plaquettes est normal, mais dysfonctionnement des plaquettes caractérisé par l'allongement du temps de saignement.
-Vasculaire
-Le taux de plaquette est normal ainsi que leur fonctionnement. Seuls les vaisseaux capillaires sont altérés et permettent le passage des globules rouges.
+lié à une thrombopénie centrale.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Purpura</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Purpura</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Causes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Thrombopathie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le taux de plaquettes est normal, mais dysfonctionnement des plaquettes caractérisé par l'allongement du temps de saignement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Purpura</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Purpura</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Causes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Vasculaire</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le taux de plaquette est normal ainsi que leur fonctionnement. Seuls les vaisseaux capillaires sont altérés et permettent le passage des globules rouges.
 Purpura rhumatoïde
 Purpura inflammatoire idiopathique chronique de l'adulte
 Purpura hyperglobulinémique de Waldenström
@@ -561,52 +649,190 @@
 Périartérite noueuse
 Polyangéite microscopique
 Granulomatose avec polyangéite
-Granulomatose éosinophilique avec polyangéite
-Infections
-Purpura fulminans[3]
-Mécanique
-L'insuffisance veineuse des jambes : dermite ocre
+Granulomatose éosinophilique avec polyangéite</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Purpura</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Purpura</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Causes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Infections</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Purpura fulminans</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Purpura</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Purpura</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Causes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mécanique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>L'insuffisance veineuse des jambes : dermite ocre
 Eczématide-like purpura
-Effort de vomissement
-Carentielle
-Carence en vitamine C (cf. pétéchie, scorbut, avec les lésions purpuriques à tropisme pilaire. Elles peuvent s'accompagner d'une fine hyperkératose pilaire et de poils incurvés ou « en tire-bouchon »[4])
-Autres purpura rares
-Purpura annulaire et télangiectasique de Majocchi</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Purpura</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Purpura</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+Effort de vomissement</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Purpura</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Purpura</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Causes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Carentielle</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Carence en vitamine C (cf. pétéchie, scorbut, avec les lésions purpuriques à tropisme pilaire. Elles peuvent s'accompagner d'une fine hyperkératose pilaire et de poils incurvés ou « en tire-bouchon »)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Purpura</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Purpura</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Causes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Autres purpura rares</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Purpura annulaire et télangiectasique de Majocchi</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Purpura</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Purpura</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Traitements du purpura thrombopénique idiopathique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Le traitement a pour but de diminuer à la fois la production d'anticorps, mais également la lyse plaquettaire. Ce sont principalement :
 les corticoïdes, entre 0,5 et 1 mg/j/kg de prednisolone ;
 les transfusions d'immunoglobulines humaines ;
 la splénectomie (ablation chirurgicale de la rate) ;
 les transfusions de plaquettes, uniquement quand le pronostic vital est mis en jeu ;
-deux analogues du récepteur à la thrombopoïétine sont disponibles sur le marché : le romiplostim (nom commercial : Nplate[5]), injectable, facteur de croissance plaquettaire indiqué dans le traitement du purpura thrombopénique idiopathique (PTI) chronique après un échec des autres traitements habituels, chez les patients réfractaires à la splénectomie[6], et le Revolade (eltrombopag), oral.</t>
+deux analogues du récepteur à la thrombopoïétine sont disponibles sur le marché : le romiplostim (nom commercial : Nplate), injectable, facteur de croissance plaquettaire indiqué dans le traitement du purpura thrombopénique idiopathique (PTI) chronique après un échec des autres traitements habituels, chez les patients réfractaires à la splénectomie, et le Revolade (eltrombopag), oral.</t>
         </is>
       </c>
     </row>
